--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eventustpl-my.sharepoint.com/personal/pravin_singh_eventustechsol_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A7305FB8-430B-45F4-A281-06CFD0070868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5964878E-3ADD-442F-BA0F-E0765C5580A4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A7305FB8-430B-45F4-A281-06CFD0070868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FFABCF-D188-4876-AB5B-5185E6355030}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{2D7393FE-F36A-4C8C-BD4D-DB2BEDA6379A}"/>
   </bookViews>
@@ -113,6 +113,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,7 +419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -436,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>7208420701</v>
+        <v>9322880206</v>
       </c>
     </row>
   </sheetData>
